--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Vegfc</t>
+  </si>
+  <si>
+    <t>Flt4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Vegfc</t>
-  </si>
-  <si>
-    <t>Flt4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H2">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I2">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J2">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.700438</v>
+        <v>14.66230666666667</v>
       </c>
       <c r="N2">
-        <v>50.101314</v>
+        <v>43.98692</v>
       </c>
       <c r="O2">
-        <v>0.9900549709158725</v>
+        <v>0.9789625381844935</v>
       </c>
       <c r="P2">
-        <v>0.9900549709158725</v>
+        <v>0.9789625381844935</v>
       </c>
       <c r="Q2">
-        <v>92.71037173499933</v>
+        <v>72.55993371872889</v>
       </c>
       <c r="R2">
-        <v>834.3933456149939</v>
+        <v>653.03940346856</v>
       </c>
       <c r="S2">
-        <v>0.5216081016858628</v>
+        <v>0.4814139584103559</v>
       </c>
       <c r="T2">
-        <v>0.5216081016858628</v>
+        <v>0.481413958410356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H3">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I3">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J3">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1259933333333333</v>
+        <v>0.1570316666666667</v>
       </c>
       <c r="N3">
-        <v>0.37798</v>
+        <v>0.471095</v>
       </c>
       <c r="O3">
-        <v>0.007469284695941936</v>
+        <v>0.01048457943693316</v>
       </c>
       <c r="P3">
-        <v>0.007469284695941937</v>
+        <v>0.01048457943693316</v>
       </c>
       <c r="Q3">
-        <v>0.6994360728422221</v>
+        <v>0.7771087854122222</v>
       </c>
       <c r="R3">
-        <v>6.29492465558</v>
+        <v>6.99397906871</v>
       </c>
       <c r="S3">
-        <v>0.003935174839430806</v>
+        <v>0.005155889722156646</v>
       </c>
       <c r="T3">
-        <v>0.003935174839430807</v>
+        <v>0.005155889722156647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H4">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I4">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J4">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04176133333333332</v>
+        <v>0.07632099999999999</v>
       </c>
       <c r="N4">
-        <v>0.125284</v>
+        <v>0.228963</v>
       </c>
       <c r="O4">
-        <v>0.00247574438818559</v>
+        <v>0.005095746636280425</v>
       </c>
       <c r="P4">
-        <v>0.00247574438818559</v>
+        <v>0.005095746636280426</v>
       </c>
       <c r="Q4">
-        <v>0.2318327661515555</v>
+        <v>0.3776927346593332</v>
       </c>
       <c r="R4">
-        <v>2.086494895363999</v>
+        <v>3.399234611934</v>
       </c>
       <c r="S4">
-        <v>0.001304340030116009</v>
+        <v>0.002505880933684612</v>
       </c>
       <c r="T4">
-        <v>0.001304340030116009</v>
+        <v>0.002505880933684612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.979395333333334</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H5">
-        <v>11.938186</v>
+        <v>14.846218</v>
       </c>
       <c r="I5">
-        <v>0.3776605706236408</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J5">
-        <v>0.3776605706236408</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>16.700438</v>
+        <v>0.08173366666666666</v>
       </c>
       <c r="N5">
-        <v>50.101314</v>
+        <v>0.245201</v>
       </c>
       <c r="O5">
-        <v>0.9900549709158725</v>
+        <v>0.005457135742292845</v>
       </c>
       <c r="P5">
-        <v>0.9900549709158725</v>
+        <v>0.005457135742292845</v>
       </c>
       <c r="Q5">
-        <v>66.45764504182267</v>
+        <v>0.4044786110908888</v>
       </c>
       <c r="R5">
-        <v>598.118805376404</v>
+        <v>3.640307499818</v>
       </c>
       <c r="S5">
-        <v>0.3739047252648605</v>
+        <v>0.002683597397048434</v>
       </c>
       <c r="T5">
-        <v>0.3739047252648605</v>
+        <v>0.002683597397048434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H6">
         <v>11.938186</v>
       </c>
       <c r="I6">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J6">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1259933333333333</v>
+        <v>14.66230666666667</v>
       </c>
       <c r="N6">
-        <v>0.37798</v>
+        <v>43.98692</v>
       </c>
       <c r="O6">
-        <v>0.007469284695941936</v>
+        <v>0.9789625381844935</v>
       </c>
       <c r="P6">
-        <v>0.007469284695941937</v>
+        <v>0.9789625381844935</v>
       </c>
       <c r="Q6">
-        <v>0.5013772826977778</v>
+        <v>58.34711472523555</v>
       </c>
       <c r="R6">
-        <v>4.51239554428</v>
+        <v>525.12403252712</v>
       </c>
       <c r="S6">
-        <v>0.002820854320419859</v>
+        <v>0.3871160573352145</v>
       </c>
       <c r="T6">
-        <v>0.002820854320419859</v>
+        <v>0.3871160573352145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H7">
         <v>11.938186</v>
       </c>
       <c r="I7">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J7">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.04176133333333332</v>
+        <v>0.1570316666666667</v>
       </c>
       <c r="N7">
-        <v>0.125284</v>
+        <v>0.471095</v>
       </c>
       <c r="O7">
-        <v>0.00247574438818559</v>
+        <v>0.01048457943693316</v>
       </c>
       <c r="P7">
-        <v>0.00247574438818559</v>
+        <v>0.01048457943693316</v>
       </c>
       <c r="Q7">
-        <v>0.1661848549804444</v>
+        <v>0.6248910815188888</v>
       </c>
       <c r="R7">
-        <v>1.495663694824</v>
+        <v>5.62401973367</v>
       </c>
       <c r="S7">
-        <v>0.0009349910383604466</v>
+        <v>0.004145969734419525</v>
       </c>
       <c r="T7">
-        <v>0.0009349910383604466</v>
+        <v>0.004145969734419525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,60 +903,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.044456</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H8">
-        <v>0.133368</v>
+        <v>11.938186</v>
       </c>
       <c r="I8">
-        <v>0.004219052625158775</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J8">
-        <v>0.004219052625158775</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>16.700438</v>
+        <v>0.07632099999999999</v>
       </c>
       <c r="N8">
-        <v>50.101314</v>
+        <v>0.228963</v>
       </c>
       <c r="O8">
-        <v>0.9900549709158725</v>
+        <v>0.005095746636280425</v>
       </c>
       <c r="P8">
-        <v>0.9900549709158725</v>
+        <v>0.005095746636280426</v>
       </c>
       <c r="Q8">
-        <v>0.7424346717279999</v>
+        <v>0.3037114312353333</v>
       </c>
       <c r="R8">
-        <v>6.681912045552</v>
+        <v>2.733402881118</v>
       </c>
       <c r="S8">
-        <v>0.004177094024094106</v>
+        <v>0.002015036602600107</v>
       </c>
       <c r="T8">
-        <v>0.004177094024094106</v>
+        <v>0.002015036602600107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -968,52 +968,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.044456</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H9">
-        <v>0.133368</v>
+        <v>11.938186</v>
       </c>
       <c r="I9">
-        <v>0.004219052625158775</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J9">
-        <v>0.004219052625158775</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1259933333333333</v>
+        <v>0.08173366666666666</v>
       </c>
       <c r="N9">
-        <v>0.37798</v>
+        <v>0.245201</v>
       </c>
       <c r="O9">
-        <v>0.007469284695941936</v>
+        <v>0.005457135742292845</v>
       </c>
       <c r="P9">
-        <v>0.007469284695941937</v>
+        <v>0.005457135742292845</v>
       </c>
       <c r="Q9">
-        <v>0.005601159626666666</v>
+        <v>0.3252505717095555</v>
       </c>
       <c r="R9">
-        <v>0.05041043664</v>
+        <v>2.927255145386</v>
       </c>
       <c r="S9">
-        <v>3.151330520447208E-05</v>
+        <v>0.002157942505968864</v>
       </c>
       <c r="T9">
-        <v>3.151330520447209E-05</v>
+        <v>0.002157942505968864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H10">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I10">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J10">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04176133333333332</v>
+        <v>14.66230666666667</v>
       </c>
       <c r="N10">
-        <v>0.125284</v>
+        <v>43.98692</v>
       </c>
       <c r="O10">
-        <v>0.00247574438818559</v>
+        <v>0.9789625381844935</v>
       </c>
       <c r="P10">
-        <v>0.00247574438818559</v>
+        <v>0.9789625381844935</v>
       </c>
       <c r="Q10">
-        <v>0.001856541834666666</v>
+        <v>16.32269071077778</v>
       </c>
       <c r="R10">
-        <v>0.016708876512</v>
+        <v>146.904216397</v>
       </c>
       <c r="S10">
-        <v>1.044529586019652E-05</v>
+        <v>0.1082962834206009</v>
       </c>
       <c r="T10">
-        <v>1.044529586019652E-05</v>
+        <v>0.1082962834206009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9617376666666667</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H11">
-        <v>2.885213</v>
+        <v>3.339725</v>
       </c>
       <c r="I11">
-        <v>0.09127276019579077</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J11">
-        <v>0.09127276019579077</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>16.700438</v>
+        <v>0.1570316666666667</v>
       </c>
       <c r="N11">
-        <v>50.101314</v>
+        <v>0.471095</v>
       </c>
       <c r="O11">
-        <v>0.9900549709158725</v>
+        <v>0.01048457943693316</v>
       </c>
       <c r="P11">
-        <v>0.9900549709158725</v>
+        <v>0.01048457943693316</v>
       </c>
       <c r="Q11">
-        <v>16.06144027443133</v>
+        <v>0.1748141943194445</v>
       </c>
       <c r="R11">
-        <v>144.552962469882</v>
+        <v>1.573327748875</v>
       </c>
       <c r="S11">
-        <v>0.09036504994105503</v>
+        <v>0.001159841099081908</v>
       </c>
       <c r="T11">
-        <v>0.09036504994105503</v>
+        <v>0.001159841099081908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9617376666666667</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H12">
-        <v>2.885213</v>
+        <v>3.339725</v>
       </c>
       <c r="I12">
-        <v>0.09127276019579077</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J12">
-        <v>0.09127276019579077</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1259933333333333</v>
+        <v>0.07632099999999999</v>
       </c>
       <c r="N12">
-        <v>0.37798</v>
+        <v>0.228963</v>
       </c>
       <c r="O12">
-        <v>0.007469284695941936</v>
+        <v>0.005095746636280425</v>
       </c>
       <c r="P12">
-        <v>0.007469284695941937</v>
+        <v>0.005095746636280426</v>
       </c>
       <c r="Q12">
-        <v>0.1211725344155555</v>
+        <v>0.08496371724166667</v>
       </c>
       <c r="R12">
-        <v>1.09055280974</v>
+        <v>0.7646734551750001</v>
       </c>
       <c r="S12">
-        <v>0.0006817422308867982</v>
+        <v>0.0005637094377335588</v>
       </c>
       <c r="T12">
-        <v>0.0006817422308867983</v>
+        <v>0.0005637094377335589</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,55 +1213,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.113241666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.339725</v>
+      </c>
+      <c r="I13">
+        <v>0.1106235215306998</v>
+      </c>
+      <c r="J13">
+        <v>0.1106235215306998</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.08173366666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.245201</v>
+      </c>
+      <c r="O13">
+        <v>0.005457135742292845</v>
+      </c>
+      <c r="P13">
+        <v>0.005457135742292845</v>
+      </c>
+      <c r="Q13">
+        <v>0.0909893233027778</v>
+      </c>
+      <c r="R13">
+        <v>0.8189039097250002</v>
+      </c>
+      <c r="S13">
+        <v>0.0006036875732834842</v>
+      </c>
+      <c r="T13">
+        <v>0.0006036875732834842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="J14">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>14.66230666666667</v>
+      </c>
+      <c r="N14">
+        <v>43.98692</v>
+      </c>
+      <c r="O14">
+        <v>0.9789625381844935</v>
+      </c>
+      <c r="P14">
+        <v>0.9789625381844935</v>
+      </c>
+      <c r="Q14">
+        <v>0.3219793669644444</v>
+      </c>
+      <c r="R14">
+        <v>2.89781430268</v>
+      </c>
+      <c r="S14">
+        <v>0.002136239018322096</v>
+      </c>
+      <c r="T14">
+        <v>0.002136239018322096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.9617376666666667</v>
-      </c>
-      <c r="H13">
-        <v>2.885213</v>
-      </c>
-      <c r="I13">
-        <v>0.09127276019579077</v>
-      </c>
-      <c r="J13">
-        <v>0.09127276019579077</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.04176133333333332</v>
-      </c>
-      <c r="N13">
-        <v>0.125284</v>
-      </c>
-      <c r="O13">
-        <v>0.00247574438818559</v>
-      </c>
-      <c r="P13">
-        <v>0.00247574438818559</v>
-      </c>
-      <c r="Q13">
-        <v>0.04016344727688888</v>
-      </c>
-      <c r="R13">
-        <v>0.3614710254919999</v>
-      </c>
-      <c r="S13">
-        <v>0.0002259680238489381</v>
-      </c>
-      <c r="T13">
-        <v>0.0002259680238489381</v>
+      <c r="G15">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="J15">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1570316666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.471095</v>
+      </c>
+      <c r="O15">
+        <v>0.01048457943693316</v>
+      </c>
+      <c r="P15">
+        <v>0.01048457943693316</v>
+      </c>
+      <c r="Q15">
+        <v>0.00344836305611111</v>
+      </c>
+      <c r="R15">
+        <v>0.031035267505</v>
+      </c>
+      <c r="S15">
+        <v>2.287888127508014E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.287888127508014E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="J16">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.07632099999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.228963</v>
+      </c>
+      <c r="O16">
+        <v>0.005095746636280425</v>
+      </c>
+      <c r="P16">
+        <v>0.005095746636280426</v>
+      </c>
+      <c r="Q16">
+        <v>0.001675983719666666</v>
+      </c>
+      <c r="R16">
+        <v>0.015083853477</v>
+      </c>
+      <c r="S16">
+        <v>1.111966226214707E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.111966226214707E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="J17">
+        <v>0.002182145827851387</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.08173366666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.245201</v>
+      </c>
+      <c r="O17">
+        <v>0.005457135742292845</v>
+      </c>
+      <c r="P17">
+        <v>0.005457135742292845</v>
+      </c>
+      <c r="Q17">
+        <v>0.001794844075444444</v>
+      </c>
+      <c r="R17">
+        <v>0.016153596679</v>
+      </c>
+      <c r="S17">
+        <v>1.190826599206301E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.190826599206301E-05</v>
       </c>
     </row>
   </sheetData>
